--- a/marsframeworkmaster/MarsFramework/TestData/LogInData.xlsx
+++ b/marsframeworkmaster/MarsFramework/TestData/LogInData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\AdvanceTask\AutomationTask\marsframeworkmaster\MarsFramework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\MVP\AutomationTask\marsframeworkmaster\MarsFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618734B-F52C-4857-BD1F-5CED61F9CC53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDEF992-AED2-4713-9937-AACE57CE0386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="80" windowWidth="18940" windowHeight="10120" activeTab="5" xr2:uid="{AC3CBE72-DA97-4E18-B194-62C30268D00D}"/>
   </bookViews>
@@ -338,7 +338,7 @@
     <t>TextMessage</t>
   </si>
   <si>
-    <t>I am automating Sending text msg</t>
+    <t>Text message</t>
   </si>
 </sst>
 </file>
